--- a/01/CLI-lab.xlsx
+++ b/01/CLI-lab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SunTaeHong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4BB424-9A49-4DE4-A0DB-7D86C62FD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1494B8E-F095-4B19-A52E-295E95637FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="-16200" windowWidth="15900" windowHeight="16200" xr2:uid="{17855986-A50B-49B0-B0DB-D39A93A71DFD}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="18240" xr2:uid="{17855986-A50B-49B0-B0DB-D39A93A71DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
   <si>
     <t>scp-tool-cli configure set cmp-url https://openapi.samsungsdscloud.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>N2t2bUFSZ1FvVlJDVXgrMEVQd3pjUDVTUlRrUTQ9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEBadr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPadr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dbadr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +480,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -576,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,13 +647,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -944,29 +978,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8808C-BA06-4D2B-87BF-AA46A847924A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.75" customWidth="1"/>
-    <col min="12" max="12" width="179.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.25" customWidth="1"/>
-    <col min="14" max="14" width="24.25" customWidth="1"/>
-    <col min="15" max="15" width="18.75" customWidth="1"/>
-    <col min="16" max="16" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.69921875" customWidth="1"/>
+    <col min="12" max="12" width="179.296875" customWidth="1"/>
+    <col min="13" max="13" width="26.19921875" customWidth="1"/>
+    <col min="14" max="14" width="24.19921875" customWidth="1"/>
+    <col min="15" max="15" width="18.69921875" customWidth="1"/>
+    <col min="16" max="16" width="34.796875" customWidth="1"/>
     <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1019,7 +1053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1042,11 +1076,11 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="9"/>
@@ -1068,11 +1102,11 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C4" s="9"/>
@@ -1094,7 +1128,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1117,11 +1151,11 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="9"/>
@@ -1143,7 +1177,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -1167,8 +1201,8 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="34" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1201,8 +1235,8 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="34" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
       <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
@@ -1233,8 +1267,8 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="34" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
@@ -1265,8 +1299,8 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="34" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1331,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1320,8 +1354,8 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="12"/>
@@ -1354,8 +1388,8 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
       <c r="B14" s="12"/>
       <c r="C14" s="9" t="s">
         <v>10</v>
@@ -1386,8 +1420,8 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
       <c r="B15" s="12"/>
       <c r="C15" s="9" t="s">
         <v>10</v>
@@ -1418,8 +1452,8 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
       <c r="B16" s="12"/>
       <c r="C16" s="9" t="s">
         <v>12</v>
@@ -1450,8 +1484,8 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1497,8 +1531,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
@@ -1542,8 +1576,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
       <c r="B19" s="12" t="s">
         <v>69</v>
       </c>
@@ -1587,8 +1621,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
       <c r="B20" s="12" t="s">
         <v>75</v>
       </c>
@@ -1632,8 +1666,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
       <c r="B21" s="12" t="s">
         <v>76</v>
       </c>
@@ -1677,8 +1711,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
       <c r="B22" s="12" t="s">
         <v>77</v>
       </c>
@@ -1722,10 +1756,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12" t="s">
-        <v>74</v>
+    <row r="23" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>81</v>
@@ -1738,7 +1772,7 @@
       </c>
       <c r="F23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>VPCdr-WEBa Subnet</v>
+        <v>VPCdr-WEBadr Subnet</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -1746,7 +1780,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>scp-tool-cli subnet create-subnet-v2 --req-vo "{  \"subnetCidrBlock\" : \"192.168.31.0/24\",  \"subnetName\" : \"WEBa\",  \"subnetType\" : \"PRIVATE\",  \"vpcId\" : \"\",  \"subnetDescription\" : \"VPCdr-WEBa Subnet\" }"</v>
+        <v>scp-tool-cli subnet create-subnet-v2 --req-vo "{  \"subnetCidrBlock\" : \"192.168.31.0/24\",  \"subnetName\" : \"WEBadr\",  \"subnetType\" : \"PRIVATE\",  \"vpcId\" : \"\",  \"subnetDescription\" : \"VPCdr-WEBadr Subnet\" }"</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>63</v>
@@ -1767,10 +1801,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12" t="s">
-        <v>69</v>
+    <row r="24" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>82</v>
@@ -1783,7 +1817,7 @@
       </c>
       <c r="F24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>VPCdr-APPa Subnet</v>
+        <v>VPCdr-APPadr Subnet</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1791,7 +1825,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>scp-tool-cli subnet create-subnet-v2 --req-vo "{  \"subnetCidrBlock\" : \"192.168.32.0/24\",  \"subnetName\" : \"APPa\",  \"subnetType\" : \"PRIVATE\",  \"vpcId\" : \"\",  \"subnetDescription\" : \"VPCdr-APPa Subnet\" }"</v>
+        <v>scp-tool-cli subnet create-subnet-v2 --req-vo "{  \"subnetCidrBlock\" : \"192.168.32.0/24\",  \"subnetName\" : \"APPadr\",  \"subnetType\" : \"PRIVATE\",  \"vpcId\" : \"\",  \"subnetDescription\" : \"VPCdr-APPadr Subnet\" }"</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>63</v>
@@ -1812,10 +1846,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="68" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12" t="s">
-        <v>75</v>
+    <row r="25" spans="1:17" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>83</v>
@@ -1828,7 +1862,7 @@
       </c>
       <c r="F25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>VPCdr-Dba Subnet</v>
+        <v>VPCdr-Dbadr Subnet</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1836,7 +1870,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>scp-tool-cli subnet create-subnet-v2 --req-vo "{  \"subnetCidrBlock\" : \"192.168.33.0/24\",  \"subnetName\" : \"Dba\",  \"subnetType\" : \"PRIVATE\",  \"vpcId\" : \"\",  \"subnetDescription\" : \"VPCdr-Dba Subnet\" }"</v>
+        <v>scp-tool-cli subnet create-subnet-v2 --req-vo "{  \"subnetCidrBlock\" : \"192.168.33.0/24\",  \"subnetName\" : \"Dbadr\",  \"subnetType\" : \"PRIVATE\",  \"vpcId\" : \"\",  \"subnetDescription\" : \"VPCdr-Dbadr Subnet\" }"</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>63</v>
@@ -1857,8 +1891,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -1895,8 +1929,8 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
       <c r="B27" s="12" t="s">
         <v>88</v>
       </c>
@@ -1931,8 +1965,8 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
       <c r="B28" s="12" t="s">
         <v>89</v>
       </c>
@@ -1967,8 +2001,8 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
       <c r="B29" s="12" t="s">
         <v>90</v>
       </c>
@@ -2003,8 +2037,8 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
       <c r="B30" s="12" t="s">
         <v>91</v>
       </c>
@@ -2039,8 +2073,8 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
       <c r="B31" s="12" t="s">
         <v>92</v>
       </c>
@@ -2075,8 +2109,8 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
       <c r="B32" s="12" t="s">
         <v>94</v>
       </c>
@@ -2111,8 +2145,8 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
       <c r="B33" s="12" t="s">
         <v>95</v>
       </c>
@@ -2147,8 +2181,8 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.45">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:17" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A34" s="15"/>
       <c r="B34" s="12" t="s">
         <v>96</v>
       </c>
@@ -2220,15 +2254,15 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" customWidth="1"/>
-    <col min="3" max="3" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -2243,8 +2277,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2260,8 +2294,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -2275,8 +2309,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -2290,8 +2324,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>13</v>
       </c>

--- a/01/CLI-lab.xlsx
+++ b/01/CLI-lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1494B8E-F095-4B19-A52E-295E95637FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2146D2-251D-4814-A2B5-65AB62AABCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="18240" xr2:uid="{17855986-A50B-49B0-B0DB-D39A93A71DFD}"/>
   </bookViews>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB8808C-BA06-4D2B-87BF-AA46A847924A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B25" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
